--- a/Projects/DELMONTEUS/Data/DelMonte_KPI Template v0.6.xlsx
+++ b/Projects/DELMONTEUS/Data/DelMonte_KPI Template v0.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="210">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -445,6 +445,9 @@
     <t xml:space="preserve">Vector</t>
   </si>
   <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMF_SUBCTGY(C)</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numerator Param 1</t>
   </si>
   <si>
@@ -566,9 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">GREEN GIANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Orientation</t>
@@ -954,18 +957,18 @@
   </sheetPr>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.162962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,13 +2338,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.6222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.0888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2358,10 @@
         <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>76</v>
@@ -2369,19 +2372,19 @@
         <v>75</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,19 +2392,19 @@
         <v>77</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,19 +2412,19 @@
         <v>78</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,19 +2432,19 @@
         <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,19 +2452,19 @@
         <v>81</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,19 +2472,19 @@
         <v>82</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,19 +2492,19 @@
         <v>83</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,19 +2512,19 @@
         <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,19 +2532,19 @@
         <v>85</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,19 +2552,19 @@
         <v>86</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,19 +2572,19 @@
         <v>87</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,19 +2592,19 @@
         <v>84</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,12 +2615,12 @@
         <v>127</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,12 +2631,12 @@
         <v>127</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,12 +2647,12 @@
         <v>127</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,12 +2663,12 @@
         <v>127</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,19 +2676,19 @@
         <v>92</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,19 +2696,19 @@
         <v>93</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,19 +2716,19 @@
         <v>94</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,19 +2736,19 @@
         <v>95</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,15 +2756,15 @@
         <v>96</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,15 +2772,15 @@
         <v>97</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,15 +2788,15 @@
         <v>98</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,15 +2804,15 @@
         <v>99</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,19 +2820,19 @@
         <v>100</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,19 +2840,19 @@
         <v>101</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,19 +2860,19 @@
         <v>102</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,19 +2880,19 @@
         <v>103</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2916,12 +2919,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +2938,10 @@
         <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,7 +2949,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -2959,16 +2962,16 @@
         <v>119</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,10 +2979,10 @@
         <v>122</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -2989,10 +2992,10 @@
         <v>117</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -3002,10 +3005,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3015,10 +3018,10 @@
         <v>121</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3028,16 +3031,16 @@
         <v>116</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,16 +3048,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3081,10 +3084,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.5111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.5888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3112,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -3132,26 +3135,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.162962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,10 +3168,10 @@
         <v>130</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>131</v>
@@ -3177,16 +3180,19 @@
         <v>132</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>69</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>135</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,31 +3203,31 @@
         <v>125</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,31 +3238,31 @@
         <v>125</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,31 +3273,31 @@
         <v>125</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>125</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3308,7 @@
         <v>125</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -3310,15 +3316,15 @@
         <v>125</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,30 +3332,30 @@
         <v>65</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3376,10 +3382,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.5666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.13333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.837037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3404,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3428,15 +3434,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.7407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.0148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,22 +3450,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>76</v>
@@ -3470,21 +3476,21 @@
         <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,21 +3498,21 @@
         <v>108</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,21 +3520,21 @@
         <v>110</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,25 +3542,25 @@
         <v>112</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,25 +3568,25 @@
         <v>113</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,25 +3594,25 @@
         <v>111</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,25 +3620,25 @@
         <v>106</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,25 +3646,25 @@
         <v>107</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,25 +3672,25 @@
         <v>104</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3706,17 +3712,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.237037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,19 +3750,19 @@
         <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,16 +3770,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -3782,16 +3788,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -3800,13 +3806,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>12</v>
@@ -3837,10 +3843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,23 +3898,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,34 +3946,40 @@
       <c r="I1" s="8" t="s">
         <v>135</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3993,14 +4006,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.7"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.1666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7925925925926"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,19 +4044,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G2" s="14" t="n">
         <v>0.5</v>
@@ -4054,19 +4067,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>0.5</v>
@@ -4077,19 +4090,19 @@
         <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>0.5</v>
@@ -4100,19 +4113,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>0.5</v>
@@ -4123,19 +4136,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="G6" s="14" t="n">
         <v>0.5</v>
@@ -4146,19 +4159,19 @@
         <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="14" t="n">
         <v>0.5</v>
@@ -4169,19 +4182,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G8" s="14" t="n">
         <v>0.5</v>
@@ -4192,19 +4205,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="G9" s="14" t="n">
         <v>0.5</v>
@@ -4215,19 +4228,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="14" t="n">
         <v>0.5</v>
@@ -4238,19 +4251,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="14" t="n">
         <v>0.5</v>
@@ -4261,19 +4274,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G12" s="14" t="n">
         <v>0.5</v>
@@ -4284,19 +4297,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="14" t="n">
         <v>0.5</v>
@@ -4321,17 +4334,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.8185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,13 +4358,13 @@
         <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,10 +4372,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -4372,10 +4385,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4385,16 +4398,16 @@
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,16 +4415,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,16 +4432,16 @@
         <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,16 +4449,16 @@
         <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,16 +4466,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,16 +4483,16 @@
         <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +4503,7 @@
         <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4500,10 +4513,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4513,10 +4526,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4526,14 +4539,14 @@
         <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" s="0" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,14 +4554,14 @@
         <v>40</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="0" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,14 +4569,14 @@
         <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="0" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,14 +4584,14 @@
         <v>46</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D16" s="10"/>
       <c r="F16" s="0" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4605,11 +4618,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,7 +4636,7 @@
         <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,13 +4644,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,13 +4658,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,13 +4672,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4673,13 +4686,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,13 +4700,13 @@
         <v>41</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,13 +4714,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,13 +4728,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,13 +4742,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4760,23 +4773,23 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.9555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.2259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.4259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5851851851852"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,10 +4803,10 @@
         <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>131</v>
@@ -4802,13 +4815,13 @@
         <v>132</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,28 +4832,28 @@
         <v>125</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>125</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +4864,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4859,12 +4872,12 @@
         <v>125</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,27 +4885,27 @@
         <v>47</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,27 +4913,27 @@
         <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="3"/>
       <c r="J5" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4941,26 +4954,26 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.837037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0925925925926"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.31111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.2074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.5037037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,16 +4987,16 @@
         <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>131</v>
@@ -4992,16 +5005,16 @@
         <v>132</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,32 +5022,32 @@
         <v>74</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,28 +5055,28 @@
         <v>73</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,40 +5084,40 @@
         <v>72</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,36 +5125,36 @@
         <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5163,21 +5176,21 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.32962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.93703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.8777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.42592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.03703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,10 +5204,10 @@
         <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>131</v>
@@ -5203,13 +5216,13 @@
         <v>132</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,27 +5230,27 @@
         <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,31 +5258,31 @@
         <v>54</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
